--- a/miniprojects/qa_excel_compiler/QAfolder/Bob_Quest.xlsx
+++ b/miniprojects/qa_excel_compiler/QAfolder/Bob_Quest.xlsx
@@ -490,12 +490,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>ISSUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Agree with John - typo</t>
+          <t>Agree - typo</t>
         </is>
       </c>
     </row>
@@ -530,12 +530,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Good translation</t>
+          <t>Good</t>
         </is>
       </c>
     </row>
@@ -555,7 +555,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>ERROR</t>
+          <t>ISSUE</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -636,7 +636,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -661,12 +661,12 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Verified shop text</t>
+          <t>Verified</t>
         </is>
       </c>
     </row>
@@ -686,12 +686,12 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>OK</t>
+          <t>NO ISSUE</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Quest complete is correct</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
